--- a/industriesplit_input.xlsx
+++ b/industriesplit_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvandarioprivat/Desktop/App_Test_Capstone/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B1713-AB82-204E-8A27-5CA0CBD24E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA273460-AB10-1D4E-9DE0-0BDB9A9633C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{6041C116-D136-5444-8A40-01E8DA168383}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="3" xr2:uid="{6041C116-D136-5444-8A40-01E8DA168383}"/>
   </bookViews>
   <sheets>
     <sheet name="Method_1" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -330,14 +330,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,89 +663,89 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17" t="s">
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17" t="s">
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
     </row>
     <row r="2" spans="1:56" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2614,11 +2616,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
@@ -2626,6 +2623,11 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3870,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F7EF7-A457-B145-A9E0-3BE31F00455A}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5105,8 +5107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC68E18-ECA3-284E-9782-A2544A3C4EC6}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5165,13 +5167,13 @@
       <c r="D2" s="10">
         <v>1727</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="20">
         <v>2720</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="20">
         <v>2549</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="20">
         <v>2378</v>
       </c>
       <c r="H2" s="6">
@@ -5206,14 +5208,14 @@
       <c r="D3" s="10">
         <v>1855</v>
       </c>
-      <c r="E3" s="6">
-        <v>3348</v>
-      </c>
-      <c r="F3" s="10">
-        <v>3090</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2832</v>
+      <c r="E3" s="20">
+        <v>3310</v>
+      </c>
+      <c r="F3" s="20">
+        <v>3051</v>
+      </c>
+      <c r="G3" s="20">
+        <v>2794</v>
       </c>
       <c r="H3" s="6">
         <v>44689</v>
@@ -5247,14 +5249,14 @@
       <c r="D4" s="10">
         <v>1923</v>
       </c>
-      <c r="E4" s="6">
-        <v>3952</v>
-      </c>
-      <c r="F4" s="10">
-        <v>3612</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3272</v>
+      <c r="E4" s="20">
+        <v>3870</v>
+      </c>
+      <c r="F4" s="20">
+        <v>3529</v>
+      </c>
+      <c r="G4" s="20">
+        <v>3190</v>
       </c>
       <c r="H4" s="6">
         <v>44284</v>
@@ -5288,14 +5290,14 @@
       <c r="D5" s="10">
         <v>1992</v>
       </c>
-      <c r="E5" s="6">
-        <v>4563</v>
-      </c>
-      <c r="F5" s="10">
-        <v>4146</v>
-      </c>
-      <c r="G5" s="6">
-        <v>3729</v>
+      <c r="E5" s="20">
+        <v>4432</v>
+      </c>
+      <c r="F5" s="20">
+        <v>4014</v>
+      </c>
+      <c r="G5" s="20">
+        <v>3598</v>
       </c>
       <c r="H5" s="6">
         <v>43851</v>
@@ -5329,14 +5331,14 @@
       <c r="D6" s="10">
         <v>2060</v>
       </c>
-      <c r="E6" s="6">
-        <v>5142</v>
-      </c>
-      <c r="F6" s="10">
-        <v>4653</v>
-      </c>
-      <c r="G6" s="6">
-        <v>4166</v>
+      <c r="E6" s="20">
+        <v>4956</v>
+      </c>
+      <c r="F6" s="20">
+        <v>4468</v>
+      </c>
+      <c r="G6" s="20">
+        <v>3980</v>
       </c>
       <c r="H6" s="6">
         <v>43429</v>
@@ -5370,14 +5372,14 @@
       <c r="D7" s="10">
         <v>2129</v>
       </c>
-      <c r="E7" s="6">
-        <v>5704</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5149</v>
-      </c>
-      <c r="G7" s="6">
-        <v>4596</v>
+      <c r="E7" s="20">
+        <v>5460</v>
+      </c>
+      <c r="F7" s="20">
+        <v>4905</v>
+      </c>
+      <c r="G7" s="20">
+        <v>4352</v>
       </c>
       <c r="H7" s="6">
         <v>43002</v>
@@ -5411,14 +5413,14 @@
       <c r="D8" s="10">
         <v>2197</v>
       </c>
-      <c r="E8" s="6">
-        <v>6229</v>
-      </c>
-      <c r="F8" s="10">
-        <v>5614</v>
-      </c>
-      <c r="G8" s="6">
-        <v>5001</v>
+      <c r="E8" s="20">
+        <v>5921</v>
+      </c>
+      <c r="F8" s="20">
+        <v>5305</v>
+      </c>
+      <c r="G8" s="20">
+        <v>4692</v>
       </c>
       <c r="H8" s="6">
         <v>42591</v>
@@ -5452,14 +5454,14 @@
       <c r="D9" s="11">
         <v>2266</v>
       </c>
-      <c r="E9" s="8">
-        <v>6691</v>
-      </c>
-      <c r="F9" s="11">
-        <v>6021</v>
-      </c>
-      <c r="G9" s="8">
-        <v>5352</v>
+      <c r="E9" s="20">
+        <v>6313</v>
+      </c>
+      <c r="F9" s="20">
+        <v>5643</v>
+      </c>
+      <c r="G9" s="20">
+        <v>4974</v>
       </c>
       <c r="H9" s="8">
         <v>42224</v>
@@ -5493,14 +5495,14 @@
       <c r="D10" s="10">
         <v>2334</v>
       </c>
-      <c r="E10" s="6">
-        <v>7033</v>
-      </c>
-      <c r="F10" s="10">
-        <v>6320</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5609</v>
+      <c r="E10" s="20">
+        <v>6580</v>
+      </c>
+      <c r="F10" s="21">
+        <v>5867</v>
+      </c>
+      <c r="G10" s="21">
+        <v>5157</v>
       </c>
       <c r="H10" s="8">
         <v>42224</v>
@@ -5534,14 +5536,14 @@
       <c r="D11" s="10">
         <v>2403</v>
       </c>
-      <c r="E11" s="6">
-        <v>7349</v>
-      </c>
-      <c r="F11" s="10">
-        <v>6594</v>
-      </c>
-      <c r="G11" s="6">
-        <v>5841</v>
+      <c r="E11" s="20">
+        <v>6816</v>
+      </c>
+      <c r="F11" s="21">
+        <v>6061</v>
+      </c>
+      <c r="G11" s="21">
+        <v>5308</v>
       </c>
       <c r="H11" s="8">
         <v>42224</v>
@@ -5575,14 +5577,14 @@
       <c r="D12" s="10">
         <v>2471</v>
       </c>
-      <c r="E12" s="6">
-        <v>7639</v>
-      </c>
-      <c r="F12" s="10">
-        <v>6842</v>
-      </c>
-      <c r="G12" s="6">
-        <v>6047</v>
+      <c r="E12" s="20">
+        <v>7022</v>
+      </c>
+      <c r="F12" s="21">
+        <v>6224</v>
+      </c>
+      <c r="G12" s="21">
+        <v>5429</v>
       </c>
       <c r="H12" s="8">
         <v>40915</v>
@@ -5616,14 +5618,14 @@
       <c r="D13" s="10">
         <v>2540</v>
       </c>
-      <c r="E13" s="6">
-        <v>7904</v>
-      </c>
-      <c r="F13" s="10">
-        <v>7064</v>
-      </c>
-      <c r="G13" s="6">
-        <v>6227</v>
+      <c r="E13" s="20">
+        <v>7196</v>
+      </c>
+      <c r="F13" s="21">
+        <v>6357</v>
+      </c>
+      <c r="G13" s="21">
+        <v>5519</v>
       </c>
       <c r="H13" s="8">
         <v>40915</v>
@@ -5657,14 +5659,14 @@
       <c r="D14" s="11">
         <v>2608</v>
       </c>
-      <c r="E14" s="8">
-        <v>8143</v>
-      </c>
-      <c r="F14" s="11">
-        <v>7261</v>
-      </c>
-      <c r="G14" s="8">
-        <v>6381</v>
+      <c r="E14" s="20">
+        <v>7340</v>
+      </c>
+      <c r="F14" s="20">
+        <v>6458</v>
+      </c>
+      <c r="G14" s="20">
+        <v>5578</v>
       </c>
       <c r="H14" s="8">
         <v>40915</v>
@@ -5698,14 +5700,14 @@
       <c r="D15" s="10">
         <v>2677</v>
       </c>
-      <c r="E15" s="6">
-        <v>8185</v>
-      </c>
-      <c r="F15" s="10">
-        <v>7264</v>
-      </c>
-      <c r="G15" s="6">
-        <v>6345</v>
+      <c r="E15" s="20">
+        <v>7282</v>
+      </c>
+      <c r="F15" s="21">
+        <v>6361</v>
+      </c>
+      <c r="G15" s="21">
+        <v>5442</v>
       </c>
       <c r="H15" s="8">
         <v>40915</v>
@@ -5739,14 +5741,14 @@
       <c r="D16" s="10">
         <v>2745</v>
       </c>
-      <c r="E16" s="6">
-        <v>8202</v>
-      </c>
-      <c r="F16" s="10">
-        <v>7242</v>
-      </c>
-      <c r="G16" s="6">
-        <v>6284</v>
+      <c r="E16" s="20">
+        <v>7194</v>
+      </c>
+      <c r="F16" s="21">
+        <v>6234</v>
+      </c>
+      <c r="G16" s="21">
+        <v>5276</v>
       </c>
       <c r="H16" s="8">
         <v>40915</v>
@@ -5780,14 +5782,14 @@
       <c r="D17" s="10">
         <v>2814</v>
       </c>
-      <c r="E17" s="6">
-        <v>8193</v>
-      </c>
-      <c r="F17" s="10">
-        <v>7194</v>
-      </c>
-      <c r="G17" s="6">
-        <v>6197</v>
+      <c r="E17" s="20">
+        <v>7074</v>
+      </c>
+      <c r="F17" s="21">
+        <v>6075</v>
+      </c>
+      <c r="G17" s="21">
+        <v>5078</v>
       </c>
       <c r="H17" s="8">
         <v>40473</v>
@@ -5821,14 +5823,14 @@
       <c r="D18" s="10">
         <v>2882</v>
       </c>
-      <c r="E18" s="6">
-        <v>8159</v>
-      </c>
-      <c r="F18" s="10">
-        <v>7121</v>
-      </c>
-      <c r="G18" s="6">
-        <v>6085</v>
+      <c r="E18" s="20">
+        <v>6924</v>
+      </c>
+      <c r="F18" s="21">
+        <v>5886</v>
+      </c>
+      <c r="G18" s="21">
+        <v>4850</v>
       </c>
       <c r="H18" s="8">
         <v>40473</v>
@@ -5862,14 +5864,14 @@
       <c r="D19" s="12">
         <v>2951</v>
       </c>
-      <c r="E19" s="8">
-        <v>8099</v>
-      </c>
-      <c r="F19" s="12">
-        <v>7022</v>
-      </c>
-      <c r="G19" s="8">
-        <v>5947</v>
+      <c r="E19" s="20">
+        <v>6743</v>
+      </c>
+      <c r="F19" s="20">
+        <v>5666</v>
+      </c>
+      <c r="G19" s="20">
+        <v>4591</v>
       </c>
       <c r="H19" s="8">
         <v>40473</v>
@@ -5910,83 +5912,83 @@
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17" t="s">
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17" t="s">
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
     </row>
     <row r="2" spans="1:56" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9220,17 +9222,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
